--- a/data/lseg_excel/SMZ26.xlsx
+++ b/data/lseg_excel/SMZ26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C530"/>
+  <dimension ref="A1:C531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>299.8</v>
+        <v>302.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>299.3</v>
+        <v>302.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>295.2</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>295.8</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>295.1</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>293.9</v>
+        <v>295.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>296.5</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>295.7</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>302</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>307.2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>307</v>
+        <v>307.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>309.4</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>303.8</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>304</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>299.9</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>304</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>306.8</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>307.3</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>310.7</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>311.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>307.6</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>305.7</v>
+        <v>307.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>304.7</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>306.2</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>305.7</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>310.3</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>310.6</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>309.6</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>311.8</v>
+        <v>309.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>311.4</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>312.2</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>315.8</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>317</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>321.2</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>320.9</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>322</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>324.8</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>329.6</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>331.6</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>331.7</v>
+        <v>331.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>329.7</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>330.3</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>328.2</v>
+        <v>330.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>331</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>334.9</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>338.2</v>
+        <v>334.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>331.9</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>337.7</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>331</v>
+        <v>337.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>328.5</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>325.9</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>323.4</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>331.7</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>324.9</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>329.2</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>329.5</v>
+        <v>329.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>323.4</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>319.5</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>317.9</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>309.9</v>
+        <v>317.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>304.2</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>300.5</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>299.6</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>299</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>298.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>294</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>291.2</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>290.3</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>289.1</v>
+        <v>290.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>289.9</v>
+        <v>289.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>290.6</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>292.3</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>293.3</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>293.9</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>295.2</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>291.9</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>291.7</v>
+        <v>291.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>293.6</v>
+        <v>291.7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>292.8</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>290.6</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>292.3</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>293.7</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>295.8</v>
+        <v>293.7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>298.6</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>299.5</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>300.8</v>
+        <v>299.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>299.9</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>300</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>302.4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>301.6</v>
+        <v>302.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>299.9</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>302.8</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>300.4</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>299</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>298.8</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>298.6</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>299.9</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>304.5</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>301.7</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>302.3</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>306.2</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>303.1</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>304.8</v>
+        <v>303.1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>308.2</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>312.2</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>311.1</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2097,13 +2097,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>308.2</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>309.8</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>309.9</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>311.5</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>307</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>304.9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>299.6</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2202,13 +2202,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>299.7</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2217,13 +2217,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>295.8</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>298.7</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>298.8</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>295.5</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>291.3</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>289.5</v>
+        <v>291.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>291.2</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2322,13 +2322,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>293.5</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>296.2</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>297.7</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>299.9</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>301</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>299.6</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>303.3</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>298.2</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>298.5</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>293.9</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>296.6</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>298.1</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>300.2</v>
+        <v>298.1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>298</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>298.8</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>300.3</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>306</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>304.5</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>301.4</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>303</v>
+        <v>301.4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>301.7</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>300</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>302.9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>306.8</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>307.8</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>309.2</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>309.1</v>
+        <v>309.2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2742,13 +2742,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>306.6</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>312.1</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>315</v>
+        <v>312.1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>315.1</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>316.3</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>318</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>319.5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>319</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>317.6</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>315.3</v>
+        <v>317.6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>315.9</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>317.2</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>317</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>318.3</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>318.5</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2982,13 +2982,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>319.7</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>316.4</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>313.5</v>
+        <v>316.4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>312.3</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>313.4</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>314.9</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>311</v>
+        <v>314.9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>311.7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>315.5</v>
+        <v>311.7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>311</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>310.4</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>311.1</v>
+        <v>310.4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>308.4</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3177,13 +3177,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>308.6</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>310.7</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>307.7</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3222,13 +3222,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>309.4</v>
+        <v>307.7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>310.2</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>309</v>
+        <v>310.2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>310.6</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>309.5</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>311.1</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3312,13 +3312,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>310.5</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>311.4</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>313.8</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>314.8</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>312.4</v>
+        <v>314.8</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>313.2</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>314.5</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3417,13 +3417,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>312.4</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>310.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>308.3</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3462,13 +3462,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>308</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>306.2</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>310.1</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3507,13 +3507,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>308.9</v>
+        <v>310.1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3522,13 +3522,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>312.3</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3543,7 +3543,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>314.2</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>314.7</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>314.2</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>315.3</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>315.8</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>317.2</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3642,13 +3642,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>315.8</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3657,13 +3657,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>317.4</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>319.7</v>
+        <v>317.4</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>323.3</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>324.2</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3717,13 +3717,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>325.1</v>
+        <v>324.2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>320.1</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>322.4</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>322.3</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>322.7</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3792,13 +3792,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>321.8</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>318.7</v>
+        <v>321.8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>314.1</v>
+        <v>318.7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>317.5</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>319</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>319.2</v>
+        <v>319</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3882,13 +3882,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>322.1</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>321.9</v>
+        <v>322.1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>320.1</v>
+        <v>321.9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>321.3</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>320.2</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>318.8</v>
+        <v>320.2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>318.6</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3987,13 +3987,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>320.1</v>
+        <v>318.6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4002,13 +4002,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>317.5</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>318.9</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>320</v>
+        <v>318.9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>322.9</v>
+        <v>323</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>328.1</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>329.5</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4107,13 +4107,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>332.6</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>325.1</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>323.3</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>326.9</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>330.7</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>325.4</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>324.9</v>
+        <v>325.4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>326.1</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>331.3</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>330.8</v>
+        <v>331.3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>326.9</v>
+        <v>330.8</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>317.8</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>316.7</v>
+        <v>317.8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>319</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>323.3</v>
+        <v>319</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>323.6</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>317.3</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>319.2</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>321.3</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>324.4</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>327.1</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>328.5</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>335.8</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4452,13 +4452,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>331.2</v>
+        <v>335.8</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4467,13 +4467,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>326</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>327.9</v>
+        <v>325</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>318</v>
+        <v>327.9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>314.1</v>
+        <v>318</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>316.6</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4557,13 +4557,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>309.9</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>306.6</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4587,13 +4587,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>310.6</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>310.7</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -4617,13 +4617,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>310.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>312.9</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>314.1</v>
+        <v>312.9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>313.9</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>312</v>
+        <v>313.9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>310.7</v>
+        <v>312</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>313.1</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4737,13 +4737,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>312.4</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>311.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>312.2</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>314.1</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>310.8</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>313.2</v>
+        <v>310.8</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,13 +4827,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>310.7</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4842,13 +4842,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>308.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>309.8</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>308.5</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>310</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>308.6</v>
+        <v>310</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>307.3</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>310.6</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>311.1</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4962,13 +4962,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>312.3</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4977,13 +4977,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>312.8</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>315</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>313.8</v>
+        <v>315</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>315.8</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>315.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>314.3</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>318.5</v>
+        <v>314.3</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>318.3</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5103,7 +5103,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>319</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>319.9</v>
+        <v>319</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>321</v>
+        <v>319.9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>321.3</v>
+        <v>321</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>321.6</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5187,13 +5187,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>322.4</v>
+        <v>321.6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>322.6</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5217,13 +5217,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>322.8</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>323.4</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>323.7</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>327</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>325.7</v>
+        <v>327</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>327</v>
+        <v>325.7</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>329.5</v>
+        <v>327</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,13 +5322,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>329.6</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>329.8</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>332.6</v>
+        <v>329.8</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>333.3</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>340.5</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,13 +5397,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>341.7</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>342.5</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>347.5</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>336.3</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>338.2</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>336.5</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>339.8</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>332.2</v>
+        <v>339.8</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>335.2</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>337.1</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>337.2</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>339.2</v>
+        <v>337.2</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>338.5</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>337.3</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>335.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>333.1</v>
+        <v>335.4</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>337.3</v>
+        <v>333.1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>336.2</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>338</v>
+        <v>336.2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>340.6</v>
+        <v>338</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5697,13 +5697,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>333.3</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5712,13 +5712,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>324.7</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>322.4</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>322.8</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>325.3</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>324.1</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>322.9</v>
+        <v>324.1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>323.9</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>327.7</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>327.4</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>328.8</v>
+        <v>327.4</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>323.2</v>
+        <v>328.8</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5877,13 +5877,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>326.6</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>324.7</v>
+        <v>326.6</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5907,13 +5907,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>320.9</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>323</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>329.3</v>
+        <v>325</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>331.1</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>337.4</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>341</v>
+        <v>337.4</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>334.2</v>
+        <v>341</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>327.5</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>327.3</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>327.1</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>329.6</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>332.4</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>335.1</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>329.3</v>
+        <v>335.1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>328.1</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>328.3</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>318.8</v>
+        <v>328.3</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>319.8</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>319.4</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>316.7</v>
+        <v>319.4</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>323.2</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>321.1</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>322.7</v>
+        <v>321.1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>322.8</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>322.7</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>327.2</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>325.9</v>
+        <v>327.2</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>332</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>334.5</v>
+        <v>332</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>334.7</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>334.2</v>
+        <v>334.7</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>336.7</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>341.7</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>338</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>340.5</v>
+        <v>338</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>341.2</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>341.1</v>
+        <v>341.2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>347.1</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>349.9</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>348.9</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>350.2</v>
+        <v>348.9</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>354</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>351.1</v>
+        <v>354</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>350.9</v>
+        <v>351.1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>349.4</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>349.6</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>349.7</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>352.2</v>
+        <v>349.7</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>354.4</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>354.5</v>
+        <v>354.4</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>358.6</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>362.6</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>359.6</v>
+        <v>362.6</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6753,7 +6753,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>357.7</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>357.2</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>355.9</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>356.7</v>
+        <v>355.9</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6822,13 +6822,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>361.8</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>364.4</v>
+        <v>361.8</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>361.4</v>
+        <v>364.4</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>363</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>365.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>367.5</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>369.3</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6927,13 +6927,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>369.2</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>363.7</v>
+        <v>369.2</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>359.4</v>
+        <v>363.7</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>351.2</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>351.5</v>
+        <v>351.2</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>353.3</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>346.9</v>
+        <v>353.3</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>347.8</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>347.4</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>346.4</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>345.1</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>343.9</v>
+        <v>345.1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>340.3</v>
+        <v>343.9</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>342.5</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7137,13 +7137,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>341.1</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>344</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>346.5</v>
+        <v>344</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>342.1</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>339.9</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>342.8</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>343.5</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>341</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>346.7</v>
+        <v>341</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>343.6</v>
+        <v>346.7</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>342.8</v>
+        <v>343.6</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>344.4</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>346.8</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>345</v>
+        <v>346.8</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7347,13 +7347,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>345.2</v>
+        <v>345</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>345.6</v>
+        <v>345.2</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>346.1</v>
+        <v>345.6</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>349.9</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>348.8</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>346.1</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>344</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>344.1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>345.7</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>344.8</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>347.6</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>347.7</v>
+        <v>347.6</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>349.9</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>342</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>342.3</v>
+        <v>342</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>341.8</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>343.7</v>
+        <v>341.8</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -7602,13 +7602,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>343.1</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7617,13 +7617,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>340.6</v>
+        <v>343.1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>340.9</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>340.2</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>339.3</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>339.4</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>339.1</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7707,13 +7707,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>340.3</v>
+        <v>339.1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7722,13 +7722,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>342.4</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>339.9</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>334.3</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>338</v>
+        <v>334.3</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>337.3</v>
+        <v>338</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>339.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7812,13 +7812,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>337.3</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7827,13 +7827,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>339.6</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>340.4</v>
+        <v>339.6</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>344.4</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>346.3</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7893,7 +7893,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>349.2</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>351.6</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7932,13 +7932,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>350.1</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7947,13 +7947,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>346.1</v>
+        <v>350.1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>342.4</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>347.8</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>350.9</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>347.8</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8022,13 +8022,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>345</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8037,13 +8037,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>345.7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8052,13 +8052,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>345</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8082,13 +8082,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>350.6</v>
+        <v>344</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -8097,13 +8097,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>348</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>346.9</v>
+        <v>348</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8127,13 +8127,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>348.3</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>350.8</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>351.6</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>353.6</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8187,13 +8187,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>356.6</v>
+        <v>353.6</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8202,13 +8202,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>358.4</v>
+        <v>356.6</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>360.3</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>365.4</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>369.1</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8262,13 +8262,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>371.1</v>
+        <v>369.1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8283,7 +8283,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>367.4</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8307,13 +8307,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>362.9</v>
+        <v>367.4</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>363</v>
+        <v>362.9</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -8337,13 +8337,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>363.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>367.8</v>
+        <v>363.8</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8367,21 +8367,36 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>366.3</v>
+        <v>367.8</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>SMK26</t>
-        </is>
-      </c>
-      <c r="C530" t="n">
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
         <v>369.9</v>
       </c>
     </row>

--- a/data/lseg_excel/SMZ26.xlsx
+++ b/data/lseg_excel/SMZ26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C531"/>
+  <dimension ref="A1:C533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>302.2</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>302.1</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>299.3</v>
+        <v>297.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>295.2</v>
+        <v>302.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>295.8</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>295.1</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>293.9</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>296.5</v>
+        <v>295.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>295.7</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>302</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>307.2</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>309.4</v>
+        <v>307.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>303.8</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>304</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>299.9</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>306.8</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>307.3</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>310.7</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>311.3</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>307.6</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>305.7</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>304.7</v>
+        <v>307.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>306.2</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>305.7</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>310.3</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>310.6</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>309.6</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>311.8</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>311.4</v>
+        <v>309.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>312.2</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>315.8</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>317</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>321.2</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>320.9</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>322</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>324.8</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>329.6</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>331.6</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>331.7</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>329.7</v>
+        <v>331.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>330.3</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>328.2</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>331</v>
+        <v>330.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>334.9</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>338.2</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>331.9</v>
+        <v>334.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>337.7</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>331</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>326</v>
+        <v>337.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>328.5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>325.9</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>323.4</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>331.7</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>324.9</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>329.2</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>329.5</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>323.4</v>
+        <v>329.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>319.5</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>317.9</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>309.9</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>304.2</v>
+        <v>317.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>300.5</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>299.6</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>299</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>298.5</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>291.2</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>290.3</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>289.1</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>289.9</v>
+        <v>290.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>290.6</v>
+        <v>289.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>292.3</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>293.3</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>293.3</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>293.9</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>295.2</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>295.2</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>291.9</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>291.7</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>293.6</v>
+        <v>291.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>292.8</v>
+        <v>291.7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>290.6</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>292.3</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>293.7</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>295.8</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>298.6</v>
+        <v>293.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>299.5</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>300.8</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>299.9</v>
+        <v>299.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>300</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>302.4</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>301.6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>299.9</v>
+        <v>302.4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>302.8</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>300.4</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>299</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>298.8</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>298.6</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>299.9</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>304.5</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>301.7</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>302.3</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>306.2</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>303.1</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>304.8</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>308.2</v>
+        <v>303.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>312.2</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2097,13 +2097,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>311.1</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>308.2</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>309.8</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>309.9</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>311.5</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>307</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>304.9</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2202,13 +2202,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>299.6</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2217,13 +2217,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>299.7</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>295.8</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>298.7</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>298.8</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>295.5</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>291.3</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>289.5</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2322,13 +2322,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>291.2</v>
+        <v>291.3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>293.5</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>296.2</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>297.7</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>299.9</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>301</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>299.6</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>303.3</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>298.2</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>298.5</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>293.9</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>296.6</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>298.1</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>300.2</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>298</v>
+        <v>298.1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>298.8</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>300.3</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>306</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>304.5</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>301.4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>303</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>301.7</v>
+        <v>301.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>302.9</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>306.8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>307.8</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>309.2</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>309.1</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2742,13 +2742,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>309.1</v>
+        <v>309.2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>306.6</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>312.1</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>315</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>315.1</v>
+        <v>312.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>316.3</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>318</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>319.5</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>317.6</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>315.3</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>315.9</v>
+        <v>317.6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>317.2</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>317</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>316</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>318.3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2982,13 +2982,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>318.5</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>319.7</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>316.4</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>313.5</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>312.3</v>
+        <v>316.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>313.4</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>314.9</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>311</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>311.7</v>
+        <v>314.9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>315.5</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>311</v>
+        <v>311.7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>310.4</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>311.1</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3177,13 +3177,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>308.4</v>
+        <v>310.4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>308.6</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>310.7</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3222,13 +3222,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>307.7</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>309.4</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>310.2</v>
+        <v>307.7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>309</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>310.6</v>
+        <v>310.2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>309.5</v>
+        <v>309</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3312,13 +3312,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>311.1</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>310.5</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>311.4</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>313.8</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>314.8</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>312.4</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>313.2</v>
+        <v>314.8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3417,13 +3417,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>314.5</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>312.4</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>310.3</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3462,13 +3462,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>308.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>308</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>306.2</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3507,13 +3507,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>310.1</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3522,13 +3522,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>308.9</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3537,13 +3537,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>312.3</v>
+        <v>310.1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>312.3</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>314.2</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>314.7</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>315.3</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>315.8</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3642,13 +3642,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>317.2</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>317.4</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>319.7</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>323.3</v>
+        <v>317.4</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3717,13 +3717,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>324.2</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>325.1</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>320.1</v>
+        <v>324.2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>322.4</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>322.3</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3792,13 +3792,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>322.7</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>321.8</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>318.7</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>314.1</v>
+        <v>321.8</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>317.5</v>
+        <v>318.7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>319</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3882,13 +3882,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>319.2</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>322.1</v>
+        <v>319</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>321.9</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>320.1</v>
+        <v>322.1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>321.3</v>
+        <v>321.9</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>320.2</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>318.8</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3987,13 +3987,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>318.6</v>
+        <v>320.2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4002,13 +4002,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>320.1</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>317.5</v>
+        <v>318.6</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>318.9</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>320</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>323</v>
+        <v>318.9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>322.9</v>
+        <v>320</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>328.1</v>
+        <v>323</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4107,13 +4107,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>329.5</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>332.6</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>325.1</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>323.3</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>326.9</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>330.7</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>325.4</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>324.9</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>326.1</v>
+        <v>325.4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>331.3</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>330.8</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>326.9</v>
+        <v>331.3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>317.8</v>
+        <v>330.8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>316.7</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>319</v>
+        <v>317.8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>323.3</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>323.6</v>
+        <v>319</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>317.3</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>319.2</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>321.3</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>324.4</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>327.1</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>328.5</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4452,13 +4452,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>335.8</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4467,13 +4467,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>331.2</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>326</v>
+        <v>335.8</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>325</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>327.9</v>
+        <v>326</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>314.1</v>
+        <v>327.9</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4557,13 +4557,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>316.6</v>
+        <v>318</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>309.9</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4587,13 +4587,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>306.6</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>310.6</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -4617,13 +4617,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>310.7</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>310.3</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>312.9</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>314.1</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>313.9</v>
+        <v>312.9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>312</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>310.7</v>
+        <v>313.9</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>313.1</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4737,13 +4737,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>313.1</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>312.4</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>311.3</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>312.2</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>314.1</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>310.8</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,13 +4827,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>313.2</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4842,13 +4842,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>310.7</v>
+        <v>310.8</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>308.3</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>309.8</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>308.5</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>310</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>308.6</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>307.3</v>
+        <v>310</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>310.6</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4962,13 +4962,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>311.1</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4977,13 +4977,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>312.3</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>312.8</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>315</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>313.8</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>315.8</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>315.3</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>314.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>318.5</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>318.3</v>
+        <v>314.3</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>318.3</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>319</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>319.9</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>321.3</v>
+        <v>319.9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5187,13 +5187,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>321.6</v>
+        <v>321</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>322.4</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5217,13 +5217,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>322.6</v>
+        <v>321.6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>322.8</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>323.4</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>323.7</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>327</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>325.7</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5313,7 +5313,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,13 +5322,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>329.5</v>
+        <v>325.7</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>329.6</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>329.8</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>332.6</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>333.3</v>
+        <v>329.8</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,13 +5397,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>340.5</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>341.7</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>342.5</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>347.5</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>336.3</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>338.2</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>336.5</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>339.8</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>332.2</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>335.2</v>
+        <v>339.8</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>337.1</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>337.2</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>339.2</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>338.5</v>
+        <v>337.2</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>337.3</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>335.4</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>333.1</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>337.3</v>
+        <v>335.4</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>336.2</v>
+        <v>333.1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>338</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5697,13 +5697,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>340.6</v>
+        <v>336.2</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5712,13 +5712,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>333.3</v>
+        <v>338</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>324.7</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>322.4</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>322.8</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>325.3</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>324.1</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>322.9</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>323.9</v>
+        <v>324.1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>327.7</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>327.4</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>328.8</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5877,13 +5877,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>323.2</v>
+        <v>327.4</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>326.6</v>
+        <v>328.8</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5907,13 +5907,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>324.7</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>320.9</v>
+        <v>326.6</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>323</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>325</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>329.3</v>
+        <v>323</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>331.1</v>
+        <v>325</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>337.4</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>341</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>334.2</v>
+        <v>337.4</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>327.5</v>
+        <v>341</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>327.3</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>327.1</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>329.6</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>332.4</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>335.1</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>329.3</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>328.1</v>
+        <v>335.1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>328.3</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>318.8</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>319.8</v>
+        <v>328.3</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>319.8</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>319.4</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>316.7</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>323.2</v>
+        <v>319.4</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>321.1</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>322.7</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>322.8</v>
+        <v>321.1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>327.2</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>325.9</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>325.9</v>
+        <v>327.2</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>332</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>334.5</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>334.7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>334.2</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>336.7</v>
+        <v>334.7</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>341.7</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>338</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>340.5</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>341.2</v>
+        <v>338</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>341.1</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>347.1</v>
+        <v>341.2</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>349.9</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>348.9</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>350.2</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>354</v>
+        <v>348.9</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>351.1</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>350.9</v>
+        <v>354</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>349.4</v>
+        <v>351.1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>349.6</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>349.7</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>352.2</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>354.4</v>
+        <v>349.7</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>354.5</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>358.6</v>
+        <v>354.4</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>362.6</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>359.6</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>359.6</v>
+        <v>362.6</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>357.7</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>357.2</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>355.9</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6822,13 +6822,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>356.7</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>361.8</v>
+        <v>355.9</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>364.4</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>361.4</v>
+        <v>361.8</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>363</v>
+        <v>364.4</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>365.4</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>367.5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6927,13 +6927,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>369.3</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>369.2</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>363.7</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>359.4</v>
+        <v>369.2</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>351.2</v>
+        <v>363.7</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>351.5</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>353.3</v>
+        <v>351.2</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>346.9</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>347.8</v>
+        <v>353.3</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>347.4</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>346.4</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>345.1</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>343.9</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>340.3</v>
+        <v>345.1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7137,13 +7137,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>342.5</v>
+        <v>343.9</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>341.1</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>344</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>346.5</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>342.1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>339.9</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>342.8</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>343.5</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>341</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>346.7</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>343.6</v>
+        <v>341</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>342.8</v>
+        <v>346.7</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>344.4</v>
+        <v>343.6</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>346.8</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7347,13 +7347,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>345</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>345.2</v>
+        <v>346.8</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>345.6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>346.1</v>
+        <v>345.2</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>349.9</v>
+        <v>345.6</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>348.8</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>346.1</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>344</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>344.1</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>345.7</v>
+        <v>344</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>344.8</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>347.6</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>347.7</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>349.9</v>
+        <v>347.6</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>342</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>342.3</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>341.8</v>
+        <v>342</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -7602,13 +7602,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>343.7</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7617,13 +7617,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>343.1</v>
+        <v>341.8</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>340.6</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>340.9</v>
+        <v>343.1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>340.2</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>339.3</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>339.4</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7707,13 +7707,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>339.1</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7722,13 +7722,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>340.3</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>342.4</v>
+        <v>339.1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>339.9</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>334.3</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>338</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>337.3</v>
+        <v>334.3</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7812,13 +7812,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>339.4</v>
+        <v>338</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7833,7 +7833,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>339.6</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>340.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>344.4</v>
+        <v>339.6</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>346.3</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>346.3</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>349.2</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7932,13 +7932,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>351.6</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7947,13 +7947,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>350.1</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>346.1</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>342.4</v>
+        <v>350.1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>347.8</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>350.9</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8028,7 +8028,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8037,13 +8037,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>345</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8052,13 +8052,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>345.7</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8073,7 +8073,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8082,13 +8082,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>344</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -8097,13 +8097,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>350.6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8127,13 +8127,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>346.9</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>348.3</v>
+        <v>348</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>350.8</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>351.6</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8187,13 +8187,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>353.6</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8202,13 +8202,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>356.6</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>358.4</v>
+        <v>353.6</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>360.3</v>
+        <v>356.6</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>365.4</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8262,13 +8262,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>369.1</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>371.1</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>371.1</v>
+        <v>369.1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8307,13 +8307,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>367.4</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>362.9</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -8337,13 +8337,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>363</v>
+        <v>367.4</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>363.8</v>
+        <v>362.9</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8367,13 +8367,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>367.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8382,21 +8382,51 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>366.3</v>
+        <v>363.8</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>367.8</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>SMK26</t>
-        </is>
-      </c>
-      <c r="C531" t="n">
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
         <v>369.9</v>
       </c>
     </row>

--- a/data/lseg_excel/SMZ26.xlsx
+++ b/data/lseg_excel/SMZ26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C533"/>
+  <dimension ref="A1:C538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>301</v>
+        <v>294.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>298</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>297.9</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>302.1</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>299.3</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>295.2</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>295.8</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>295.1</v>
+        <v>297.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>293.9</v>
+        <v>302.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>296.5</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>295.7</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>302</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>307.2</v>
+        <v>295.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>307</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>309.4</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>303.8</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>299.9</v>
+        <v>307.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>306.8</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>307.3</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>310.7</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>311.3</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>307.6</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>305.7</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>304.7</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>306.2</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>305.7</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>310.3</v>
+        <v>307.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>310.6</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>309.6</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>311.8</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>311.4</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>312.2</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>315.8</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>317</v>
+        <v>309.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>321.2</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>320.9</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>322</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>324.8</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>329.6</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>331.6</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>331.7</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>329.7</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>330.3</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>328.2</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>331</v>
+        <v>331.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>334.9</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>338.2</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>331.9</v>
+        <v>330.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>337.7</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>326</v>
+        <v>334.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>328.5</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>325.9</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>323.4</v>
+        <v>337.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>331.7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>324.9</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>329.2</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>329.5</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>319.5</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>317.9</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>309.9</v>
+        <v>329.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>304.2</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>300.5</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>299.6</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>299</v>
+        <v>317.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>298.5</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>294</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>291.2</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>290.3</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>289.1</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>289.9</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>290.6</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>292.3</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>293.3</v>
+        <v>290.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>293.3</v>
+        <v>289.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>293.9</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>295.2</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>295.2</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>291.9</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>291.7</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>293.6</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>292.8</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>290.6</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>292.3</v>
+        <v>291.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>293.7</v>
+        <v>291.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>295.8</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>298.6</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>299.5</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>300.8</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>299.9</v>
+        <v>293.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>300</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>302.4</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>301.6</v>
+        <v>299.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>299.9</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>302.8</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>300.4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>299</v>
+        <v>302.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>298.8</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>298.6</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>299.9</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>304.5</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>301.7</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>302.3</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>306.2</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>303.1</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>304.8</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2097,13 +2097,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>308.2</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>312.2</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>311.1</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>308.2</v>
+        <v>303.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>309.8</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>309.9</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>311.5</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2202,13 +2202,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>307</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2217,13 +2217,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>304.9</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>299.6</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>299.7</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>295.8</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>298.7</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>298.8</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>295.5</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2322,13 +2322,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>291.3</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>289.5</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>291.2</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>293.5</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>296.2</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>297.7</v>
+        <v>291.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>299.9</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>301</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>299.6</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>303.3</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>298.2</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>298.5</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>293.9</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>296.6</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>298.1</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>300.2</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>298</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>298.8</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>300.3</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>306</v>
+        <v>298.1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>304.5</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>301.4</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>303</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>301.7</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>302.9</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>306.8</v>
+        <v>301.4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>307.8</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2742,13 +2742,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>309.2</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>309.1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>309.1</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>306.6</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>312.1</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>315</v>
+        <v>309.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>315.1</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>316.3</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>318</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>319.5</v>
+        <v>312.1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>317.6</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>315.3</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>315.9</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>317.2</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2982,13 +2982,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>316</v>
+        <v>317.6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>318.3</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>318.5</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>319.7</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>316.4</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>313.5</v>
+        <v>316</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>312.3</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>313.4</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>314.9</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>311</v>
+        <v>316.4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>311.7</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>315.5</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>311</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3177,13 +3177,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>310.4</v>
+        <v>314.9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>311.1</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>308.4</v>
+        <v>311.7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3222,13 +3222,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>308.6</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>310.7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>307.7</v>
+        <v>310.4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>309.4</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>310.2</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>309</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3312,13 +3312,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>310.6</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>309.5</v>
+        <v>307.7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>311.1</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>310.5</v>
+        <v>310.2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>311.4</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>313.8</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>314.8</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3417,13 +3417,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>312.4</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>313.2</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>314.5</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3462,13 +3462,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>312.4</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>310.3</v>
+        <v>314.8</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>308.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3507,13 +3507,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>308</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3522,13 +3522,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>306.2</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3537,13 +3537,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>310.1</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>308.9</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>312.3</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>312.3</v>
+        <v>308</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>314.2</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>314.7</v>
+        <v>310.1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>314.2</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3642,13 +3642,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>315.3</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3657,13 +3657,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>315.8</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>317.2</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>315.8</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>317.4</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3717,13 +3717,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>319.7</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>323.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>324.2</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>325.1</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>320.1</v>
+        <v>317.4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3792,13 +3792,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>322.4</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>322.3</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>322.7</v>
+        <v>324.2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>321.8</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>318.7</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>314.1</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3882,13 +3882,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>317.5</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>319</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>319.2</v>
+        <v>321.8</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>322.1</v>
+        <v>318.7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>321.9</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>320.1</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>321.3</v>
+        <v>319</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3987,13 +3987,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>320.2</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4002,13 +4002,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>318.8</v>
+        <v>322.1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>318.6</v>
+        <v>321.9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4038,7 +4038,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>317.5</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>318.9</v>
+        <v>320.2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>320</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>323</v>
+        <v>318.6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4107,13 +4107,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>322.9</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>328.1</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>329.5</v>
+        <v>318.9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>332.6</v>
+        <v>320</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>325.1</v>
+        <v>323</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>323.3</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>326.9</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>330.7</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>325.4</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>324.9</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>326.1</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>331.3</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>330.8</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>326.9</v>
+        <v>325.4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>317.8</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>316.7</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>319</v>
+        <v>331.3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>323.3</v>
+        <v>330.8</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>323.6</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>317.3</v>
+        <v>317.8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>319.2</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>321.3</v>
+        <v>319</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>324.4</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4452,13 +4452,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>327.1</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4467,13 +4467,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>328.5</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>335.8</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>331.2</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>326</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>325</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>327.9</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4557,13 +4557,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>318</v>
+        <v>335.8</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>314.1</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4587,13 +4587,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>316.6</v>
+        <v>326</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>309.9</v>
+        <v>325</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -4617,13 +4617,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>306.6</v>
+        <v>327.9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>310.6</v>
+        <v>318</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>310.7</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>310.3</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>312.9</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>314.1</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>313.9</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>312</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4737,13 +4737,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>310.7</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>313.1</v>
+        <v>312.9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>313.1</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>312.4</v>
+        <v>313.9</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>311.3</v>
+        <v>312</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>312.2</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,13 +4827,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>314.1</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4842,13 +4842,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>310.8</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>313.2</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>310.7</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>308.3</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>309.8</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>308.5</v>
+        <v>310.8</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>310</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>308.6</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4962,13 +4962,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>307.3</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4977,13 +4977,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>310.6</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>311.1</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>312.3</v>
+        <v>310</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>312.8</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>315</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>313.8</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>315.8</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>315.3</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>314.3</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>318.5</v>
+        <v>315</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>318.3</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>318.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>319</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>319.9</v>
+        <v>314.3</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5187,13 +5187,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>321</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>321.3</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5217,13 +5217,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>321.6</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>322.4</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>322.6</v>
+        <v>319.9</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>322.8</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>323.4</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>323.7</v>
+        <v>321.6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>327</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,13 +5322,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>325.7</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>327</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>329.5</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>329.6</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>329.8</v>
+        <v>327</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,13 +5397,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>332.6</v>
+        <v>325.7</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>333.3</v>
+        <v>327</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>340.5</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>341.7</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>342.5</v>
+        <v>329.8</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>347.5</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>336.3</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>338.2</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>336.5</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>339.8</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>332.2</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>335.2</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>337.1</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>337.2</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>339.2</v>
+        <v>339.8</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>338.5</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>337.3</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>335.4</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>333.1</v>
+        <v>337.2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>337.3</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5697,13 +5697,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>336.2</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5712,13 +5712,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>338</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>340.6</v>
+        <v>335.4</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>333.3</v>
+        <v>333.1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>324.7</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>322.4</v>
+        <v>336.2</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>322.8</v>
+        <v>338</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>325.3</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>324.1</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>322.9</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>323.9</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>327.7</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5877,13 +5877,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>327.4</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>328.8</v>
+        <v>324.1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5907,13 +5907,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>323.2</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>326.6</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>324.7</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>320.9</v>
+        <v>327.4</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>323</v>
+        <v>328.8</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>325</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>329.3</v>
+        <v>326.6</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>331.1</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>337.4</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>334.2</v>
+        <v>325</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>327.5</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>327.3</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>327.1</v>
+        <v>337.4</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>329.6</v>
+        <v>341</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>332.4</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>335.1</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>329.3</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>328.1</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>328.3</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>318.8</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>319.8</v>
+        <v>335.1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>319.8</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>319.4</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>316.7</v>
+        <v>328.3</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>323.2</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>321.1</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>322.7</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>322.8</v>
+        <v>319.4</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>322.7</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>327.2</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>325.9</v>
+        <v>321.1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>325.9</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>332</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>334.5</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>334.7</v>
+        <v>327.2</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>334.2</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>336.7</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>341.7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>338</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>340.5</v>
+        <v>334.7</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>341.2</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>341.1</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>347.1</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>349.9</v>
+        <v>338</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>348.9</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>350.2</v>
+        <v>341.2</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>354</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>351.1</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>350.9</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>349.4</v>
+        <v>348.9</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>349.6</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>349.7</v>
+        <v>354</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>352.2</v>
+        <v>351.1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>354.4</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>354.5</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>358.6</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>362.6</v>
+        <v>349.7</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>359.6</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>359.6</v>
+        <v>354.4</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>357.7</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6822,13 +6822,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>357.2</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>355.9</v>
+        <v>362.6</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>356.7</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>361.8</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>364.4</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>361.4</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>363</v>
+        <v>355.9</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6927,13 +6927,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>365.4</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>367.5</v>
+        <v>361.8</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>369.3</v>
+        <v>364.4</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>369.2</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>363.7</v>
+        <v>363</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>359.4</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>351.2</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>351.5</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>353.3</v>
+        <v>369.2</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>346.9</v>
+        <v>363.7</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>347.8</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>347.4</v>
+        <v>351.2</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>346.4</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>345.1</v>
+        <v>353.3</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7137,13 +7137,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>343.9</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>340.3</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>342.5</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>341.1</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>344</v>
+        <v>345.1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>346.5</v>
+        <v>343.9</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>342.1</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>339.9</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>342.8</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>343.5</v>
+        <v>344</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>341</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>346.7</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>343.6</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -7338,7 +7338,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7347,13 +7347,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>344.4</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>346.8</v>
+        <v>341</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>345</v>
+        <v>346.7</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>345.2</v>
+        <v>343.6</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>345.6</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>346.1</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>349.9</v>
+        <v>346.8</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>348.8</v>
+        <v>345</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>346.1</v>
+        <v>345.2</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>344</v>
+        <v>345.6</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>344.1</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>345.7</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>344.8</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>347.6</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>347.7</v>
+        <v>344</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>349.9</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>342</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -7602,13 +7602,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>342.3</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7617,13 +7617,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>341.8</v>
+        <v>347.6</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>343.7</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>343.1</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>340.6</v>
+        <v>342</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>340.9</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>340.2</v>
+        <v>341.8</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7707,13 +7707,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>339.3</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7722,13 +7722,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>339.4</v>
+        <v>343.1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>339.1</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>340.3</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>342.4</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>339.9</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>334.3</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7812,13 +7812,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>338</v>
+        <v>339.1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7827,13 +7827,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>337.3</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>339.4</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>337.3</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>339.6</v>
+        <v>334.3</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>340.4</v>
+        <v>338</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>344.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>346.3</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7932,13 +7932,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>346.3</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7947,13 +7947,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>349.2</v>
+        <v>339.6</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>351.6</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>350.1</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>346.1</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>342.4</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8022,13 +8022,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>347.8</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8037,13 +8037,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>350.9</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8052,13 +8052,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>347.8</v>
+        <v>350.1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>345</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8082,13 +8082,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>345.7</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -8097,13 +8097,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>345</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>344</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8127,13 +8127,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>350.6</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>346.9</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>348.3</v>
+        <v>345</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8187,13 +8187,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>350.8</v>
+        <v>344</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8202,13 +8202,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>351.6</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>353.6</v>
+        <v>348</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>356.6</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>358.4</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8262,13 +8262,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>360.3</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>365.4</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>369.1</v>
+        <v>353.6</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8307,13 +8307,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>371.1</v>
+        <v>356.6</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>371.1</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -8337,13 +8337,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>367.4</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>362.9</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8367,13 +8367,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>363</v>
+        <v>369.1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8382,13 +8382,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>363.8</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -8397,13 +8397,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>367.8</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -8412,21 +8412,96 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>366.3</v>
+        <v>367.4</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>362.9</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>363.8</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>367.8</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>SMK26</t>
-        </is>
-      </c>
-      <c r="C533" t="n">
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
         <v>369.9</v>
       </c>
     </row>

--- a/data/lseg_excel/SMZ26.xlsx
+++ b/data/lseg_excel/SMZ26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C538"/>
+  <dimension ref="A1:C539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>294.1</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>295.7</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>298.2</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>297.5</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>300.2</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>301.5</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>298</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>297.9</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>302.1</v>
+        <v>297.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>299.3</v>
+        <v>302.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>295.2</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>295.8</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>295.1</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>293.9</v>
+        <v>295.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>296.5</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>295.7</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>302</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>307.2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>307</v>
+        <v>307.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>309.4</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>303.8</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>304</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>299.9</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>304</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>306.8</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>307.3</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>310.7</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>311.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>307.6</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>305.7</v>
+        <v>307.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>304.7</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>306.2</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>305.7</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>310.3</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>310.6</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>309.6</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>311.8</v>
+        <v>309.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>311.4</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>312.2</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>315.8</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>317</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>321.2</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>320.9</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>322</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>324.8</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>329.6</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>331.6</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>331.7</v>
+        <v>331.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>329.7</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>330.3</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>328.2</v>
+        <v>330.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>331</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>334.9</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>338.2</v>
+        <v>334.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>331.9</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>337.7</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>331</v>
+        <v>337.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>328.5</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>325.9</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>323.4</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>331.7</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>324.9</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>329.2</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>329.5</v>
+        <v>329.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>323.4</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>319.5</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>317.9</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>309.9</v>
+        <v>317.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>304.2</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>300.5</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>299.6</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>299</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>298.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>294</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>291.2</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>290.3</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>289.1</v>
+        <v>290.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>289.9</v>
+        <v>289.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>290.6</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>292.3</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>293.3</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>293.9</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>295.2</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>291.9</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>291.7</v>
+        <v>291.9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>293.6</v>
+        <v>291.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>292.8</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>290.6</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>292.3</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>293.7</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>295.8</v>
+        <v>293.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>298.6</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>299.5</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>300.8</v>
+        <v>299.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>299.9</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>300</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>302.4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>301.6</v>
+        <v>302.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>299.9</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>302.8</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>300.4</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>299</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>298.8</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>298.6</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>299.9</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>304.5</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2097,13 +2097,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>301.7</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>302.3</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>306.2</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>303.1</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>304.8</v>
+        <v>303.1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>308.2</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>312.2</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2202,13 +2202,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>311.1</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2217,13 +2217,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>308.2</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>309.8</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>309.9</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>311.5</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>307</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>304.9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>299.6</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2322,13 +2322,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>299.7</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>295.8</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>298.7</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>298.8</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>295.5</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>291.3</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>289.5</v>
+        <v>291.3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>291.2</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>293.5</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>296.2</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>297.7</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>299.9</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>301</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>299.6</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>303.3</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>298.2</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>298.5</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>293.9</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>296.6</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>298.1</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>300.2</v>
+        <v>298.1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>298</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>298.8</v>
+        <v>298</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>300.3</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>306</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>304.5</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>301.4</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>303</v>
+        <v>301.4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2742,13 +2742,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>301.7</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>300</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>302.9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>306.8</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>307.8</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>309.2</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>309.1</v>
+        <v>309.2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>306.6</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>312.1</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>315</v>
+        <v>312.1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>315.1</v>
+        <v>315</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>316.3</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>318</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>319.5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>319</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2982,13 +2982,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>317.6</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>315.3</v>
+        <v>317.6</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>315.9</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>317.2</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>317</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>318.3</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>318.5</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>319.7</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>316.4</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>313.5</v>
+        <v>316.4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>312.3</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>313.4</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3177,13 +3177,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>314.9</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>311</v>
+        <v>314.9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>311.7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3222,13 +3222,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>315.5</v>
+        <v>311.7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>311</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>310.4</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>311.1</v>
+        <v>310.4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>308.4</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>308.6</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3312,13 +3312,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>310.7</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>307.7</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>309.4</v>
+        <v>307.7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>310.2</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>309</v>
+        <v>310.2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>310.6</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>309.5</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3417,13 +3417,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>311.1</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>310.5</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>311.4</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3462,13 +3462,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>313.8</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>314.8</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>312.4</v>
+        <v>314.8</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3507,13 +3507,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>313.2</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3522,13 +3522,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>314.5</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3537,13 +3537,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>312.4</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>310.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>308.3</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>308</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>306.2</v>
+        <v>308</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>310.1</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>308.9</v>
+        <v>310.1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3642,13 +3642,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>312.3</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>314.2</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>314.7</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>314.2</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3717,13 +3717,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>315.3</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>315.8</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>317.2</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>315.8</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>317.4</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3792,13 +3792,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>319.7</v>
+        <v>317.4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>323.3</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>324.2</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>325.1</v>
+        <v>324.2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>320.1</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>322.4</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3882,13 +3882,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>322.3</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>322.7</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>321.8</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>318.7</v>
+        <v>321.8</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>314.1</v>
+        <v>318.7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>317.5</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>319</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3987,13 +3987,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>319.2</v>
+        <v>319</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4002,13 +4002,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>322.1</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>321.9</v>
+        <v>322.1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>320.1</v>
+        <v>321.9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>321.3</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>320.2</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>318.8</v>
+        <v>320.2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>318.6</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4107,13 +4107,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>320.1</v>
+        <v>318.6</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>317.5</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>318.9</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>320</v>
+        <v>318.9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>322.9</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>328.1</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>329.5</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>332.6</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>325.1</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>323.3</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>326.9</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>330.7</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>325.4</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>324.9</v>
+        <v>325.4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>326.1</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>331.3</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>330.8</v>
+        <v>331.3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>326.9</v>
+        <v>330.8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>317.8</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>316.7</v>
+        <v>317.8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>319</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>323.3</v>
+        <v>319</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4452,13 +4452,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>323.6</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4467,13 +4467,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>317.3</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>319.2</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>321.3</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>324.4</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>327.1</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>328.5</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4557,13 +4557,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>335.8</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>331.2</v>
+        <v>335.8</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4587,13 +4587,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>326</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -4617,13 +4617,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>327.9</v>
+        <v>325</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>318</v>
+        <v>327.9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>314.1</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>316.6</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>309.9</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>306.6</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>310.6</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>310.7</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4737,13 +4737,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>310.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>312.9</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>314.1</v>
+        <v>312.9</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>313.9</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>312</v>
+        <v>313.9</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>310.7</v>
+        <v>312</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,13 +4827,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>313.1</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4848,7 +4848,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>312.4</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>311.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>312.2</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>314.1</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>310.8</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>313.2</v>
+        <v>310.8</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>310.7</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4962,13 +4962,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>308.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4977,13 +4977,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>309.8</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>308.5</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>310</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>308.6</v>
+        <v>310</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>307.3</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>310.6</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>311.1</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>312.3</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>312.8</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>315</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>313.8</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>315.8</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>315.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>314.3</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5187,13 +5187,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>318.5</v>
+        <v>314.3</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>318.3</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5223,7 +5223,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>319</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>319.9</v>
+        <v>319</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>321</v>
+        <v>319.9</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>321.3</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>321.6</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>322.4</v>
+        <v>321.6</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,13 +5322,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>322.6</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>322.8</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>323.4</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>323.7</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>327</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,13 +5397,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>325.7</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>327</v>
+        <v>325.7</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>329.5</v>
+        <v>327</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>329.6</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>329.8</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>332.6</v>
+        <v>329.8</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>333.3</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>340.5</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>341.7</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>342.5</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>347.5</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>336.3</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>338.2</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>336.5</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>339.8</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>332.2</v>
+        <v>339.8</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>335.2</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>337.1</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>337.2</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>339.2</v>
+        <v>337.2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5697,13 +5697,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>338.5</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5712,13 +5712,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>337.3</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>335.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>333.1</v>
+        <v>335.4</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>337.3</v>
+        <v>333.1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>336.2</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>338</v>
+        <v>336.2</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>340.6</v>
+        <v>338</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>333.3</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>324.7</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>322.4</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>322.8</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5877,13 +5877,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>325.3</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>324.1</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5907,13 +5907,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>322.9</v>
+        <v>324.1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>323.9</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>327.7</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>327.4</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>328.8</v>
+        <v>327.4</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>323.2</v>
+        <v>328.8</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>326.6</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>324.7</v>
+        <v>326.6</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>320.9</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>323</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>329.3</v>
+        <v>325</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>331.1</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>337.4</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>341</v>
+        <v>337.4</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>334.2</v>
+        <v>341</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>327.5</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>327.3</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>327.1</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>329.6</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>332.4</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>335.1</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>329.3</v>
+        <v>335.1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>328.1</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>328.3</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>318.8</v>
+        <v>328.3</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>319.8</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>319.4</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>316.7</v>
+        <v>319.4</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>323.2</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>321.1</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>322.7</v>
+        <v>321.1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>322.8</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>322.7</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>327.2</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>325.9</v>
+        <v>327.2</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>332</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>334.5</v>
+        <v>332</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>334.7</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>334.2</v>
+        <v>334.7</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>336.7</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>341.7</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>338</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>340.5</v>
+        <v>338</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>341.2</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>341.1</v>
+        <v>341.2</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>347.1</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>349.9</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>348.9</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>350.2</v>
+        <v>348.9</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>354</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>351.1</v>
+        <v>354</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>350.9</v>
+        <v>351.1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>349.4</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>349.6</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>349.7</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>352.2</v>
+        <v>349.7</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>354.4</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>354.5</v>
+        <v>354.4</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6822,13 +6822,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>358.6</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>362.6</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>359.6</v>
+        <v>362.6</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6873,7 +6873,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>357.7</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>357.2</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>355.9</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6927,13 +6927,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>356.7</v>
+        <v>355.9</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>361.8</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>364.4</v>
+        <v>361.8</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>361.4</v>
+        <v>364.4</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>363</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>365.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>367.5</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>369.3</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>369.2</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>363.7</v>
+        <v>369.2</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>359.4</v>
+        <v>363.7</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>351.2</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>351.5</v>
+        <v>351.2</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>353.3</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7137,13 +7137,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>346.9</v>
+        <v>353.3</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>347.8</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>347.4</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>346.4</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>345.1</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>343.9</v>
+        <v>345.1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>340.3</v>
+        <v>343.9</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>342.5</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>341.1</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>344</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>346.5</v>
+        <v>344</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>342.1</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>339.9</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>342.8</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7347,13 +7347,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>343.5</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>341</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>346.7</v>
+        <v>341</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>343.6</v>
+        <v>346.7</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>342.8</v>
+        <v>343.6</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>344.4</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>346.8</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>345</v>
+        <v>346.8</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>345.2</v>
+        <v>345</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>345.6</v>
+        <v>345.2</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>346.1</v>
+        <v>345.6</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>349.9</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>348.8</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>346.1</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>344</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>344.1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>345.7</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -7602,13 +7602,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>344.8</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7617,13 +7617,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>347.6</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>347.7</v>
+        <v>347.6</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>349.9</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>342</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>342.3</v>
+        <v>342</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>341.8</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7707,13 +7707,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>343.7</v>
+        <v>341.8</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7722,13 +7722,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>343.1</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>340.6</v>
+        <v>343.1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>340.9</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>340.2</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>339.3</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>339.4</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7812,13 +7812,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>339.1</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7827,13 +7827,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>340.3</v>
+        <v>339.1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>342.4</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>339.9</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>334.3</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>338</v>
+        <v>334.3</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>337.3</v>
+        <v>338</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>339.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7932,13 +7932,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>337.3</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7947,13 +7947,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>339.6</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>340.4</v>
+        <v>339.6</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>344.4</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>346.3</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -8013,7 +8013,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8022,13 +8022,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>349.2</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8037,13 +8037,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>351.6</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8052,13 +8052,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>350.1</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>346.1</v>
+        <v>350.1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8082,13 +8082,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>342.4</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -8097,13 +8097,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>347.8</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>350.9</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8127,13 +8127,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>347.8</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>345</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>345.7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>345</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8187,13 +8187,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8202,13 +8202,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>350.6</v>
+        <v>344</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>348</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>346.9</v>
+        <v>348</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>348.3</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8262,13 +8262,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>350.8</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>351.6</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>353.6</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8307,13 +8307,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>356.6</v>
+        <v>353.6</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>358.4</v>
+        <v>356.6</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -8337,13 +8337,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>360.3</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>365.4</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8367,13 +8367,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>369.1</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8382,13 +8382,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>371.1</v>
+        <v>369.1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -8403,7 +8403,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -8412,13 +8412,13 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>367.4</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -8427,13 +8427,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>362.9</v>
+        <v>367.4</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>363</v>
+        <v>362.9</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -8457,13 +8457,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>363.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -8472,13 +8472,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>367.8</v>
+        <v>363.8</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -8487,21 +8487,36 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>366.3</v>
+        <v>367.8</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>SMK26</t>
-        </is>
-      </c>
-      <c r="C538" t="n">
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
         <v>369.9</v>
       </c>
     </row>

--- a/data/lseg_excel/SMZ26.xlsx
+++ b/data/lseg_excel/SMZ26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C539"/>
+  <dimension ref="A1:C541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>304.9</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>300.3</v>
+        <v>307.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>295.7</v>
+        <v>306.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>298.2</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>297.5</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>300.2</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>301.5</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>298</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>297.9</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>302.1</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>299.3</v>
+        <v>297.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>295.2</v>
+        <v>302.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>295.8</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>295.1</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>293.9</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>296.5</v>
+        <v>295.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>295.7</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>302</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>307.2</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>309.4</v>
+        <v>307.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>303.8</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>304</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>299.9</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>306.8</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>307.3</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>310.7</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>311.3</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>307.6</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>305.7</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>304.7</v>
+        <v>307.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>306.2</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>305.7</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>310.3</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>310.6</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>309.6</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>311.8</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>311.4</v>
+        <v>309.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>312.2</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>315.8</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>317</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>321.2</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>320.9</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>322</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>324.8</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>329.6</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>331.6</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>331.7</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>329.7</v>
+        <v>331.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>330.3</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>328.2</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>331</v>
+        <v>330.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>334.9</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>338.2</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>331.9</v>
+        <v>334.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>337.7</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>331</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>326</v>
+        <v>337.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>328.5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>325.9</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>323.4</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>331.7</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>324.9</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>329.2</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>329.5</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>323.4</v>
+        <v>329.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>319.5</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>317.9</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>309.9</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>304.2</v>
+        <v>317.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>300.5</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>299.6</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>299</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>298.5</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>291.2</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>290.3</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>289.1</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>289.9</v>
+        <v>290.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>290.6</v>
+        <v>289.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>292.3</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>293.3</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>293.3</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>293.9</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>295.2</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>295.2</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>291.9</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>291.7</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>293.6</v>
+        <v>291.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>292.8</v>
+        <v>291.7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>290.6</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>292.3</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>293.7</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>295.8</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>298.6</v>
+        <v>293.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>299.5</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>300.8</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>299.9</v>
+        <v>299.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>300</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>302.4</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>301.6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>299.9</v>
+        <v>302.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>302.8</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>300.4</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>299</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>298.8</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>298.6</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>299.9</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2097,13 +2097,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>304.5</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>301.7</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>302.3</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>306.2</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>303.1</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>304.8</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>308.2</v>
+        <v>303.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2202,13 +2202,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>312.2</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2217,13 +2217,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>311.1</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>308.2</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>309.8</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>309.9</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>311.5</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>307</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>304.9</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2322,13 +2322,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>299.6</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>299.7</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>295.8</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>298.7</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>298.8</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>295.5</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>291.3</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>289.5</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>291.2</v>
+        <v>291.3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>293.5</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>296.2</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>297.7</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>299.9</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>301</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>299.6</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>303.3</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>298.2</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>298.5</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>293.9</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>296.6</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>298.1</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>300.2</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>298</v>
+        <v>298.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>298.8</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>300.3</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>306</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>304.5</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>301.4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2742,13 +2742,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>303</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>301.7</v>
+        <v>301.4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>302.9</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>306.8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>307.8</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>309.2</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>309.1</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>309.1</v>
+        <v>309.2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>306.6</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>312.1</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>315</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>315.1</v>
+        <v>312.1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>316.3</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>318</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>319.5</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2982,13 +2982,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>317.6</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>315.3</v>
+        <v>319</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>315.9</v>
+        <v>317.6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>317.2</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>317</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>316</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>318.3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>318.5</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>319.7</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>316.4</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>313.5</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>312.3</v>
+        <v>316.4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3177,13 +3177,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>313.4</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>314.9</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>311</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3222,13 +3222,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>311.7</v>
+        <v>314.9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>315.5</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>311</v>
+        <v>311.7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>310.4</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>311.1</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>308.4</v>
+        <v>310.4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3312,13 +3312,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>308.6</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>310.7</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>307.7</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>309.4</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>310.2</v>
+        <v>307.7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>309</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>310.6</v>
+        <v>310.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3417,13 +3417,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>309.5</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>311.1</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>310.5</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3462,13 +3462,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>311.4</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>313.8</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>314.8</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3507,13 +3507,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>312.4</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3522,13 +3522,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>313.2</v>
+        <v>314.8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3537,13 +3537,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>314.5</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>312.4</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>310.3</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>308.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>308</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>306.2</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>310.1</v>
+        <v>308</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3642,13 +3642,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>308.9</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3657,13 +3657,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>312.3</v>
+        <v>310.1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>312.3</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>314.2</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>314.7</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>315.3</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>315.8</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>317.2</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3792,13 +3792,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>317.4</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>319.7</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>323.3</v>
+        <v>317.4</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>324.2</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>325.1</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>320.1</v>
+        <v>324.2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3882,13 +3882,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>322.4</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>322.3</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>322.7</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>321.8</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>318.7</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>314.1</v>
+        <v>321.8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>317.5</v>
+        <v>318.7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3987,13 +3987,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>319</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4002,13 +4002,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>319.2</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>322.1</v>
+        <v>319</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>321.9</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>320.1</v>
+        <v>322.1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>321.3</v>
+        <v>321.9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>320.2</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>318.8</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4107,13 +4107,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>318.6</v>
+        <v>320.2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>320.1</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>317.5</v>
+        <v>318.6</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>318.9</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>320</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>323</v>
+        <v>318.9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>322.9</v>
+        <v>320</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>328.1</v>
+        <v>323</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>329.5</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>332.6</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>325.1</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>323.3</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>326.9</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>330.7</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>325.4</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>324.9</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>326.1</v>
+        <v>325.4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>331.3</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>330.8</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>326.9</v>
+        <v>331.3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>317.8</v>
+        <v>330.8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>316.7</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>319</v>
+        <v>317.8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4452,13 +4452,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>323.3</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4467,13 +4467,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>323.6</v>
+        <v>319</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>317.3</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>319.2</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>321.3</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>324.4</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>327.1</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4557,13 +4557,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>328.5</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>335.8</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4587,13 +4587,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>331.2</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>326</v>
+        <v>335.8</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -4617,13 +4617,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>325</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>327.9</v>
+        <v>326</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>314.1</v>
+        <v>327.9</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>316.6</v>
+        <v>318</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>309.9</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>306.6</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>310.6</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4737,13 +4737,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>310.7</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>310.3</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>312.9</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>314.1</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>313.9</v>
+        <v>312.9</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>312</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,13 +4827,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>310.7</v>
+        <v>313.9</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4842,13 +4842,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>313.1</v>
+        <v>312</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>313.1</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>312.4</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>311.3</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>312.2</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>314.1</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>310.8</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>313.2</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4962,13 +4962,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>310.7</v>
+        <v>310.8</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4977,13 +4977,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>308.3</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>309.8</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>308.5</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>310</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>308.6</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>307.3</v>
+        <v>310</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>310.6</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>311.1</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>312.3</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>312.8</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>315</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>313.8</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>315.8</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>315.3</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5187,13 +5187,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>314.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>318.5</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5217,13 +5217,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>318.3</v>
+        <v>314.3</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>318.3</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>319</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>319.9</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>321.3</v>
+        <v>319.9</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>321.6</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,13 +5322,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>322.4</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>322.6</v>
+        <v>321.6</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>322.8</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>323.4</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>323.7</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,13 +5397,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>327</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>325.7</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5433,7 +5433,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>329.5</v>
+        <v>325.7</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>329.6</v>
+        <v>327</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>329.8</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>332.6</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>333.3</v>
+        <v>329.8</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>340.5</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>341.7</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>342.5</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>347.5</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>336.3</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>338.2</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>336.5</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>339.8</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>332.2</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>335.2</v>
+        <v>339.8</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>337.1</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>337.2</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5697,13 +5697,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>339.2</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5712,13 +5712,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>338.5</v>
+        <v>337.2</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>337.3</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>335.4</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>333.1</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>337.3</v>
+        <v>335.4</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>336.2</v>
+        <v>333.1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>338</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>340.6</v>
+        <v>336.2</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>333.3</v>
+        <v>338</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>324.7</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>322.4</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5877,13 +5877,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>322.8</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>325.3</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5907,13 +5907,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>324.1</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>322.9</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>323.9</v>
+        <v>324.1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>327.7</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>327.4</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>328.8</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>323.2</v>
+        <v>327.4</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>326.6</v>
+        <v>328.8</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>324.7</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>320.9</v>
+        <v>326.6</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>323</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>325</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>329.3</v>
+        <v>323</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>331.1</v>
+        <v>325</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>337.4</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>341</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>334.2</v>
+        <v>337.4</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>327.5</v>
+        <v>341</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>327.3</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>327.1</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>329.6</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>332.4</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>335.1</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>329.3</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>328.1</v>
+        <v>335.1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>328.3</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>318.8</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>319.8</v>
+        <v>328.3</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>319.8</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>319.4</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>316.7</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>323.2</v>
+        <v>319.4</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>321.1</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>322.7</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>322.8</v>
+        <v>321.1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6438,7 +6438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>327.2</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>325.9</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>325.9</v>
+        <v>327.2</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>332</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>334.5</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>334.7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>334.2</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>336.7</v>
+        <v>334.7</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>341.7</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>338</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>340.5</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>341.2</v>
+        <v>338</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>341.1</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>347.1</v>
+        <v>341.2</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>349.9</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>348.9</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>350.2</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>354</v>
+        <v>348.9</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>351.1</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>350.9</v>
+        <v>354</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>349.4</v>
+        <v>351.1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>349.6</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>349.7</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>352.2</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>354.4</v>
+        <v>349.7</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6822,13 +6822,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>354.5</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>358.6</v>
+        <v>354.4</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>362.6</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>359.6</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>359.6</v>
+        <v>362.6</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>357.7</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>357.2</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6927,13 +6927,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>355.9</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>356.7</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>361.8</v>
+        <v>355.9</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>364.4</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>361.4</v>
+        <v>361.8</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>363</v>
+        <v>364.4</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>365.4</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>367.5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>369.3</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>369.2</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>363.7</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>359.4</v>
+        <v>369.2</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>351.2</v>
+        <v>363.7</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>351.5</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7137,13 +7137,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>353.3</v>
+        <v>351.2</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>346.9</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>347.8</v>
+        <v>353.3</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>347.4</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>346.4</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>345.1</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>343.9</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>340.3</v>
+        <v>345.1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>342.5</v>
+        <v>343.9</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>341.1</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>344</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>346.5</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>342.1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>339.9</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7347,13 +7347,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>342.8</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>343.5</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>341</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>346.7</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>343.6</v>
+        <v>341</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>342.8</v>
+        <v>346.7</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>344.4</v>
+        <v>343.6</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>346.8</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>345</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>345.2</v>
+        <v>346.8</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>345.6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>346.1</v>
+        <v>345.2</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>349.9</v>
+        <v>345.6</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>348.8</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>346.1</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>344</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>344.1</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -7602,13 +7602,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>345.7</v>
+        <v>344</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7617,13 +7617,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>344.8</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>347.6</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>347.7</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>349.9</v>
+        <v>347.6</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>342</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>342.3</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7707,13 +7707,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>341.8</v>
+        <v>342</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7722,13 +7722,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>343.7</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>343.1</v>
+        <v>341.8</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>340.6</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>340.9</v>
+        <v>343.1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>340.2</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>339.3</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7812,13 +7812,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>339.4</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7827,13 +7827,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>339.1</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>340.3</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>342.4</v>
+        <v>339.1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>339.9</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>334.3</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>338</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>337.3</v>
+        <v>334.3</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7932,13 +7932,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>339.4</v>
+        <v>338</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7953,7 +7953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>339.6</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>340.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>344.4</v>
+        <v>339.6</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>346.3</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8022,13 +8022,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>346.3</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8037,13 +8037,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>349.2</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8052,13 +8052,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>351.6</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>350.1</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8082,13 +8082,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>346.1</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -8097,13 +8097,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>342.4</v>
+        <v>350.1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>347.8</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8127,13 +8127,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>350.9</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>345</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>345.7</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8193,7 +8193,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8202,13 +8202,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>344</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>350.6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>346.9</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8262,13 +8262,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>348.3</v>
+        <v>348</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>350.8</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>351.6</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8307,13 +8307,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>353.6</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>356.6</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -8337,13 +8337,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>358.4</v>
+        <v>353.6</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>360.3</v>
+        <v>356.6</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8367,13 +8367,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>365.4</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8382,13 +8382,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>369.1</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -8397,13 +8397,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>371.1</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -8412,13 +8412,13 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>371.1</v>
+        <v>369.1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -8427,13 +8427,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>367.4</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>362.9</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -8457,13 +8457,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>363</v>
+        <v>367.4</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -8472,13 +8472,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>363.8</v>
+        <v>362.9</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -8487,13 +8487,13 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>367.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -8502,21 +8502,51 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>366.3</v>
+        <v>363.8</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>367.8</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>SMK26</t>
-        </is>
-      </c>
-      <c r="C539" t="n">
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
         <v>369.9</v>
       </c>
     </row>

--- a/data/lseg_excel/SMZ26.xlsx
+++ b/data/lseg_excel/SMZ26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C541"/>
+  <dimension ref="A1:C542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>307.9</v>
+        <v>302.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>306.9</v>
+        <v>307.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>300.3</v>
+        <v>306.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>295.7</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>298.2</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>297.5</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>300.2</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>301.5</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>298</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>297.9</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>302.1</v>
+        <v>297.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>299.3</v>
+        <v>302.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>295.2</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>295.8</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>295.1</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>293.9</v>
+        <v>295.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>296.5</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>295.7</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>302</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>307.2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>307</v>
+        <v>307.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>309.4</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>303.8</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>304</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>299.9</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>304</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>306.8</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>307.3</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>310.7</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>311.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>307.6</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>305.7</v>
+        <v>307.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>304.7</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>306.2</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>305.7</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>310.3</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>310.6</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>309.6</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>311.8</v>
+        <v>309.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>311.4</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>312.2</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>315.8</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>317</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>321.2</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>320.9</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>322</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>324.8</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>329.6</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>331.6</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>331.7</v>
+        <v>331.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>329.7</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>330.3</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>328.2</v>
+        <v>330.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>331</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>334.9</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>338.2</v>
+        <v>334.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>331.9</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>337.7</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>331</v>
+        <v>337.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>328.5</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>325.9</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>323.4</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>331.7</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>324.9</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>329.2</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>329.5</v>
+        <v>329.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>323.4</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>319.5</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>317.9</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>309.9</v>
+        <v>317.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>304.2</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>300.5</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>299.6</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>299</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>298.5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>294</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>291.2</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>290.3</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>289.1</v>
+        <v>290.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>289.9</v>
+        <v>289.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>290.6</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>292.3</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>293.3</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>293.9</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>295.2</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>291.9</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>291.7</v>
+        <v>291.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>293.6</v>
+        <v>291.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>292.8</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>290.6</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>292.3</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>293.7</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>295.8</v>
+        <v>293.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>298.6</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>299.5</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>300.8</v>
+        <v>299.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>299.9</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>300</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>302.4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>301.6</v>
+        <v>302.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>299.9</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>302.8</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>300.4</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>299</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>298.8</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2097,13 +2097,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>298.6</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>299.9</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>304.5</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>301.7</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>302.3</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>306.2</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>303.1</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2202,13 +2202,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>304.8</v>
+        <v>303.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2217,13 +2217,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>308.2</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>312.2</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>311.1</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>308.2</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>309.8</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>309.9</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>311.5</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2322,13 +2322,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>307</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>304.9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>299.6</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>299.7</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>295.8</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>298.7</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>298.8</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>295.5</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>291.3</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>289.5</v>
+        <v>291.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>291.2</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>293.5</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>296.2</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>297.7</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>299.9</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>301</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>299.6</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>303.3</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>298.2</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>298.5</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>293.9</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>296.6</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>298.1</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>300.2</v>
+        <v>298.1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>298</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>298.8</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>300.3</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>306</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2742,13 +2742,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>304.5</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>301.4</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>303</v>
+        <v>301.4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>301.7</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>300</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>302.9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>306.8</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>307.8</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>309.2</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>309.1</v>
+        <v>309.2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2898,7 +2898,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>306.6</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>312.1</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>315</v>
+        <v>312.1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>315.1</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>316.3</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2982,13 +2982,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>318</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>319.5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>319</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>317.6</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>315.3</v>
+        <v>317.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>315.9</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>317.2</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>317</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>318.3</v>
+        <v>316</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>318.5</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>319.7</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>316.4</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3177,13 +3177,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>313.5</v>
+        <v>316.4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>312.3</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>313.4</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3222,13 +3222,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>314.9</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>311</v>
+        <v>314.9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>311.7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>315.5</v>
+        <v>311.7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>311</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>310.4</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3312,13 +3312,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>311.1</v>
+        <v>310.4</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>308.4</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>308.6</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>310.7</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>307.7</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>309.4</v>
+        <v>307.7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>310.2</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3417,13 +3417,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>309</v>
+        <v>310.2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>310.6</v>
+        <v>309</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>309.5</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3462,13 +3462,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>311.1</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>310.5</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>311.4</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3507,13 +3507,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>313.8</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3522,13 +3522,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>314.8</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3537,13 +3537,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>312.4</v>
+        <v>314.8</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>313.2</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>314.5</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>312.4</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>310.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>308.3</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>308</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3642,13 +3642,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>306.2</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3657,13 +3657,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>310.1</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>308.9</v>
+        <v>310.1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>312.3</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3717,13 +3717,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>314.2</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>314.7</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>314.2</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>315.3</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>315.8</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3792,13 +3792,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>317.2</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>315.8</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>317.4</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>319.7</v>
+        <v>317.4</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>323.3</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>324.2</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3882,13 +3882,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>325.1</v>
+        <v>324.2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>320.1</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>322.4</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>322.3</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>322.7</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>321.8</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>318.7</v>
+        <v>321.8</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3987,13 +3987,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>314.1</v>
+        <v>318.7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4002,13 +4002,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>317.5</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>319</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>319.2</v>
+        <v>319</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>322.1</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>321.9</v>
+        <v>322.1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>320.1</v>
+        <v>321.9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>321.3</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4107,13 +4107,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>320.2</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>318.8</v>
+        <v>320.2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>318.6</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>320.1</v>
+        <v>318.6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>317.5</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>318.9</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>320</v>
+        <v>318.9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>322.9</v>
+        <v>323</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>328.1</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>329.5</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>332.6</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>325.1</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>323.3</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>326.9</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>330.7</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>325.4</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>324.9</v>
+        <v>325.4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>326.1</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>331.3</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>330.8</v>
+        <v>331.3</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>326.9</v>
+        <v>330.8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>317.8</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4452,13 +4452,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>316.7</v>
+        <v>317.8</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4467,13 +4467,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>319</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>323.3</v>
+        <v>319</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>323.6</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>317.3</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>319.2</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>321.3</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4557,13 +4557,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>324.4</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>327.1</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4587,13 +4587,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>328.5</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>335.8</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -4617,13 +4617,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>331.2</v>
+        <v>335.8</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>326</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>327.9</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>318</v>
+        <v>327.9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>314.1</v>
+        <v>318</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>316.6</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>309.9</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4737,13 +4737,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>306.6</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>310.6</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>310.7</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>310.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>312.9</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>314.1</v>
+        <v>312.9</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,13 +4827,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>313.9</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4842,13 +4842,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>312</v>
+        <v>313.9</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>310.7</v>
+        <v>312</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>313.1</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4893,7 +4893,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>312.4</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>311.3</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>312.2</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>314.1</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4962,13 +4962,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>310.8</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4977,13 +4977,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>313.2</v>
+        <v>310.8</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>310.7</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>308.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>309.8</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>308.5</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>310</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>308.6</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>307.3</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>310.6</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>311.1</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>312.3</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>312.8</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>315</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>313.8</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5187,13 +5187,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>315.8</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>315.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5217,13 +5217,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>314.3</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>318.5</v>
+        <v>314.3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>318.3</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>319</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>319.9</v>
+        <v>319</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>321</v>
+        <v>319.9</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,13 +5322,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>321.3</v>
+        <v>321</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>321.6</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>322.4</v>
+        <v>321.6</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>322.6</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>322.8</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,13 +5397,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>323.4</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>323.7</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>327</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>325.7</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>327</v>
+        <v>325.7</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>329.5</v>
+        <v>327</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>329.6</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>329.8</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>332.6</v>
+        <v>329.8</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>333.3</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>340.5</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>341.7</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>342.5</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>347.5</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>336.3</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>338.2</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>336.5</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>339.8</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>332.2</v>
+        <v>339.8</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>335.2</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5697,13 +5697,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>337.1</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5712,13 +5712,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>337.2</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>339.2</v>
+        <v>337.2</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>338.5</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>337.3</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>335.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>333.1</v>
+        <v>335.4</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>337.3</v>
+        <v>333.1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>336.2</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>338</v>
+        <v>336.2</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>340.6</v>
+        <v>338</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>333.3</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5877,13 +5877,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>324.7</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>322.4</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5907,13 +5907,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>322.8</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>325.3</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>324.1</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>322.9</v>
+        <v>324.1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>323.9</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>327.7</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>327.4</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>328.8</v>
+        <v>327.4</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>323.2</v>
+        <v>328.8</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>326.6</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>324.7</v>
+        <v>326.6</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>320.9</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>323</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>329.3</v>
+        <v>325</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>331.1</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>337.4</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>341</v>
+        <v>337.4</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>334.2</v>
+        <v>341</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>327.5</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>327.3</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>327.1</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>329.6</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>332.4</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>335.1</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>329.3</v>
+        <v>335.1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>328.1</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>328.3</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>318.8</v>
+        <v>328.3</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>319.8</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6363,7 +6363,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>319.4</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>316.7</v>
+        <v>319.4</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>323.2</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>321.1</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>322.7</v>
+        <v>321.1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>322.8</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>322.7</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>327.2</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>325.9</v>
+        <v>327.2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6513,7 +6513,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>332</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>334.5</v>
+        <v>332</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>334.7</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>334.2</v>
+        <v>334.7</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>336.7</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>341.7</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>338</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>340.5</v>
+        <v>338</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>341.2</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>341.1</v>
+        <v>341.2</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>347.1</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>349.9</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>348.9</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>350.2</v>
+        <v>348.9</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>354</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>351.1</v>
+        <v>354</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>350.9</v>
+        <v>351.1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>349.4</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>349.6</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>349.7</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6822,13 +6822,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>352.2</v>
+        <v>349.7</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>354.4</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>354.5</v>
+        <v>354.4</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>358.6</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>362.6</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>359.6</v>
+        <v>362.6</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6918,7 +6918,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6927,13 +6927,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>357.7</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>357.2</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>355.9</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>356.7</v>
+        <v>355.9</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>361.8</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>364.4</v>
+        <v>361.8</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>361.4</v>
+        <v>364.4</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>363</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>365.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>367.5</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>369.3</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>369.2</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>363.7</v>
+        <v>369.2</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>359.4</v>
+        <v>363.7</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7137,13 +7137,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>351.2</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>351.5</v>
+        <v>351.2</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>353.3</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>346.9</v>
+        <v>353.3</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>347.8</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>347.4</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>346.4</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>345.1</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>343.9</v>
+        <v>345.1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>340.3</v>
+        <v>343.9</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>342.5</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>341.1</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>344</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>346.5</v>
+        <v>344</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7347,13 +7347,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>342.1</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>339.9</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>342.8</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>343.5</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>341</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>346.7</v>
+        <v>341</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>343.6</v>
+        <v>346.7</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>342.8</v>
+        <v>343.6</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>344.4</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>346.8</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>345</v>
+        <v>346.8</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>345.2</v>
+        <v>345</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>345.6</v>
+        <v>345.2</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>346.1</v>
+        <v>345.6</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>349.9</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>348.8</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>346.1</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -7602,13 +7602,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>344</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7617,13 +7617,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>344.1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>345.7</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>344.8</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>347.6</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>347.7</v>
+        <v>347.6</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>349.9</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7707,13 +7707,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>342</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7722,13 +7722,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>342.3</v>
+        <v>342</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>341.8</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>343.7</v>
+        <v>341.8</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>343.1</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>340.6</v>
+        <v>343.1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>340.9</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7812,13 +7812,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>340.2</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7827,13 +7827,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>339.3</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>339.4</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>339.1</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>340.3</v>
+        <v>339.1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>342.4</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>339.9</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>334.3</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7932,13 +7932,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>338</v>
+        <v>334.3</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7947,13 +7947,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>337.3</v>
+        <v>338</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>339.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>337.3</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>339.6</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>340.4</v>
+        <v>339.6</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8022,13 +8022,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>344.4</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8037,13 +8037,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>346.3</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8058,7 +8058,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>349.2</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8082,13 +8082,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>351.6</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -8097,13 +8097,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>350.1</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>346.1</v>
+        <v>350.1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8127,13 +8127,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>342.4</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>347.8</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>350.9</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>347.8</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8187,13 +8187,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>345</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8202,13 +8202,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>345.7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>345</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>350.6</v>
+        <v>344</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8262,13 +8262,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>348</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>346.9</v>
+        <v>348</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>348.3</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8307,13 +8307,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>350.8</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>351.6</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -8337,13 +8337,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>353.6</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>356.6</v>
+        <v>353.6</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8367,13 +8367,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>358.4</v>
+        <v>356.6</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8382,13 +8382,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>360.3</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -8397,13 +8397,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>365.4</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -8412,13 +8412,13 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>369.1</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -8427,13 +8427,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>371.1</v>
+        <v>369.1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -8448,7 +8448,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2023-12-26</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -8457,13 +8457,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>367.4</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -8472,13 +8472,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>362.9</v>
+        <v>367.4</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -8487,13 +8487,13 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>363</v>
+        <v>362.9</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -8502,13 +8502,13 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>363.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -8517,13 +8517,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>367.8</v>
+        <v>363.8</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -8532,21 +8532,36 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>366.3</v>
+        <v>367.8</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>SMK26</t>
-        </is>
-      </c>
-      <c r="C541" t="n">
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
         <v>369.9</v>
       </c>
     </row>

--- a/data/lseg_excel/SMZ26.xlsx
+++ b/data/lseg_excel/SMZ26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C542"/>
+  <dimension ref="A1:C551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>303.3</v>
+        <v>312.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>302.7</v>
+        <v>312.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>307.9</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>306.9</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>300.3</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>295.7</v>
+        <v>310.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>298.2</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>297.5</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>300.2</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>301.5</v>
+        <v>305.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>298</v>
+        <v>302.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>297.9</v>
+        <v>307.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>302.1</v>
+        <v>306.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>299.3</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>295.2</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>295.8</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>295.1</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>293.9</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>296.5</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>295.7</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>302</v>
+        <v>297.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>307.2</v>
+        <v>302.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>307</v>
+        <v>299.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>309.4</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>303.8</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>304</v>
+        <v>295.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>299.9</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>304</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>306.8</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-29</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>307.3</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>310.7</v>
+        <v>307.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>311.3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>307.6</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>305.7</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>304.7</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>306.2</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>305.7</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>310.3</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>310.6</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>309.6</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>311.8</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>311.4</v>
+        <v>307.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>312.2</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>315.8</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>317</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>321.2</v>
+        <v>305.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>320.9</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>322</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>324.8</v>
+        <v>309.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>329.6</v>
+        <v>311.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>331.6</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>331.7</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>329.7</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>330.3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>328.2</v>
+        <v>321.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>331</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>334.9</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>338.2</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>331.9</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>337.7</v>
+        <v>331.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>331</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>326</v>
+        <v>329.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>328.5</v>
+        <v>330.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>325.9</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>323.4</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>331.7</v>
+        <v>334.9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>324.9</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>329.2</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>329.5</v>
+        <v>337.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>323.4</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>319.5</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>317.9</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>309.9</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>304.2</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>300.5</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>299.6</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1602,13 +1602,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>299</v>
+        <v>329.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>298.5</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>294</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>291.2</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>290.3</v>
+        <v>317.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>289.1</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1692,13 +1692,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>289.9</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>290.6</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1722,13 +1722,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>292.3</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>293.3</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>293.3</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>293.9</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>295.2</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1797,13 +1797,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>295.2</v>
+        <v>290.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>291.9</v>
+        <v>289.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>291.7</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>293.6</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1857,13 +1857,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>292.8</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>290.6</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>292.3</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>293.7</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>295.8</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>298.6</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>299.5</v>
+        <v>291.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>300.8</v>
+        <v>291.7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>299.9</v>
+        <v>293.6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>300</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>302.4</v>
+        <v>290.6</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>301.6</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2037,13 +2037,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>299.9</v>
+        <v>293.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>302.8</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>300.4</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>299</v>
+        <v>299.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2097,13 +2097,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>298.8</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2112,13 +2112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>298.6</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>299.9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>304.5</v>
+        <v>302.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>301.7</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>302.3</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>306.2</v>
+        <v>302.8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2202,13 +2202,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>303.1</v>
+        <v>300.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2217,13 +2217,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>304.8</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>308.2</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2247,13 +2247,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>312.2</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2262,13 +2262,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>311.1</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2277,13 +2277,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>308.2</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>309.8</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>309.9</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2322,13 +2322,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>311.5</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>307</v>
+        <v>303.1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>304.9</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>299.6</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>299.7</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>295.8</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>298.7</v>
+        <v>308.2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>298.8</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>295.5</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>291.3</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>289.5</v>
+        <v>307</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>291.2</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>293.5</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>296.2</v>
+        <v>299.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>297.7</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>299.9</v>
+        <v>298.7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>301</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2577,13 +2577,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>299.6</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>303.3</v>
+        <v>291.3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>298.2</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>298.5</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2637,13 +2637,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>293.9</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>296.6</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>298.1</v>
+        <v>297.7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2682,13 +2682,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>300.2</v>
+        <v>299.9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2697,13 +2697,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>298.8</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>300.3</v>
+        <v>303.3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2742,13 +2742,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>306</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>304.5</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2772,13 +2772,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>301.4</v>
+        <v>293.9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>303</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>301.7</v>
+        <v>298.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2817,13 +2817,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>300</v>
+        <v>300.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>302.9</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>306.8</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>307.8</v>
+        <v>300.3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>309.2</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>309.1</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>309.1</v>
+        <v>301.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>306.6</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>312.1</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>315.1</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2982,13 +2982,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>316.3</v>
+        <v>306.8</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>318</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>319.5</v>
+        <v>309.2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>319</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>317.6</v>
+        <v>309.1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>315.3</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3072,13 +3072,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>315.9</v>
+        <v>312.1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>317.2</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>317</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>316</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>318.3</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>318.5</v>
+        <v>319.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>319.7</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3177,13 +3177,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>316.4</v>
+        <v>317.6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>313.5</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>312.3</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3222,13 +3222,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>313.4</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3237,13 +3237,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>314.9</v>
+        <v>317</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3252,13 +3252,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>311.7</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3282,13 +3282,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>315.5</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3297,13 +3297,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>311</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3312,13 +3312,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>310.4</v>
+        <v>316.4</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>311.1</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>308.4</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>308.6</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>310.7</v>
+        <v>314.9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>307.7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>309.4</v>
+        <v>311.7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3417,13 +3417,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>310.2</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3447,13 +3447,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>310.6</v>
+        <v>310.4</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3462,13 +3462,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>309.5</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>311.1</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>310.5</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3507,13 +3507,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>311.4</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3522,13 +3522,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>313.8</v>
+        <v>307.7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3537,13 +3537,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>314.8</v>
+        <v>309.4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3552,13 +3552,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>312.4</v>
+        <v>310.2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>313.2</v>
+        <v>309</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>314.5</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>312.4</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3612,13 +3612,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>310.3</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>308.3</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3642,13 +3642,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>308</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3657,13 +3657,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>306.2</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>310.1</v>
+        <v>314.8</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>308.9</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3702,13 +3702,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>312.3</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3717,13 +3717,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>312.3</v>
+        <v>314.5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>314.2</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>314.7</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>314.2</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>315.3</v>
+        <v>308</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3792,13 +3792,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>315.8</v>
+        <v>306.2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>317.2</v>
+        <v>310.1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>315.8</v>
+        <v>308.9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>317.4</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3852,13 +3852,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>319.7</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3867,13 +3867,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>323.3</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3882,13 +3882,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>324.2</v>
+        <v>314.7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>325.1</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>320.1</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>322.4</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>322.3</v>
+        <v>317.2</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>322.7</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>321.8</v>
+        <v>317.4</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3987,13 +3987,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>318.7</v>
+        <v>319.7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4002,13 +4002,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>314.1</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>317.5</v>
+        <v>324.2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>319</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>319.2</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>322.1</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4077,13 +4077,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>321.9</v>
+        <v>322.3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>320.1</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4107,13 +4107,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>321.3</v>
+        <v>321.8</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4122,13 +4122,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>320.2</v>
+        <v>318.7</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4137,13 +4137,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>318.8</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>318.6</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>320.1</v>
+        <v>319</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>317.5</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>318.9</v>
+        <v>322.1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>320</v>
+        <v>321.9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>323</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4242,13 +4242,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>322.9</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-02-06</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>328.1</v>
+        <v>320.2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>329.5</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>332.6</v>
+        <v>318.6</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>325.1</v>
+        <v>320.1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>323.3</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4332,13 +4332,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>326.9</v>
+        <v>318.9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>330.7</v>
+        <v>320</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4362,13 +4362,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>325.4</v>
+        <v>323</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>324.9</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>326.1</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>331.3</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>330.8</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>326.9</v>
+        <v>325.1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4452,13 +4452,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>317.8</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4467,13 +4467,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>316.7</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>319</v>
+        <v>330.7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-01-14</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>323.3</v>
+        <v>325.4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>323.6</v>
+        <v>324.9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>317.3</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>319.2</v>
+        <v>331.3</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4557,13 +4557,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>321.3</v>
+        <v>330.8</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>324.4</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4587,13 +4587,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>327.1</v>
+        <v>317.8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -4602,13 +4602,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>328.5</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -4617,13 +4617,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>335.8</v>
+        <v>319</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>331.2</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>326</v>
+        <v>323.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -4662,13 +4662,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>325</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>327.9</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>318</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4707,13 +4707,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>314.1</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2025-01-06</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>316.6</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4737,13 +4737,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>309.9</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>306.6</v>
+        <v>335.8</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>310.6</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-30</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>310.7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>310.3</v>
+        <v>325</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>312.9</v>
+        <v>327.9</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -4827,13 +4827,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>314.1</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4842,13 +4842,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>313.9</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024-12-09</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>312</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>310.7</v>
+        <v>309.9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>313.1</v>
+        <v>306.6</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4902,13 +4902,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>313.1</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-16</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>312.4</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4932,13 +4932,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>311.3</v>
+        <v>310.3</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>312.2</v>
+        <v>312.9</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4977,13 +4977,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>310.8</v>
+        <v>313.9</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-12-09</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>313.2</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024-11-22</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5013,7 +5013,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>308.3</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>309.8</v>
+        <v>313.1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5052,13 +5052,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>308.5</v>
+        <v>312.4</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>310</v>
+        <v>311.3</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>308.6</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024-11-14</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5097,13 +5097,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>307.3</v>
+        <v>314.1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>310.6</v>
+        <v>310.8</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>311.1</v>
+        <v>313.2</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2024-11-22</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>312.3</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,13 +5157,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>312.8</v>
+        <v>308.3</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5172,13 +5172,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>315</v>
+        <v>309.8</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5187,13 +5187,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>313.8</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>315.8</v>
+        <v>310</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5217,13 +5217,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>315.3</v>
+        <v>308.6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5232,13 +5232,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>314.3</v>
+        <v>307.3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>318.5</v>
+        <v>310.6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>318.3</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-11-11</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>318.3</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5292,13 +5292,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>319</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5307,13 +5307,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>319.9</v>
+        <v>315</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5322,13 +5322,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>321</v>
+        <v>313.8</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>321.3</v>
+        <v>315.8</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>321.6</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>322.4</v>
+        <v>314.3</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5382,13 +5382,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>322.6</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5397,13 +5397,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>322.8</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>323.4</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>323.7</v>
+        <v>319</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5442,13 +5442,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>327</v>
+        <v>319.9</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5457,13 +5457,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>325.7</v>
+        <v>321</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>327</v>
+        <v>321.3</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>329.5</v>
+        <v>321.6</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>329.6</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>329.8</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>332.6</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>333.3</v>
+        <v>323.4</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -5562,13 +5562,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>340.5</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -5577,13 +5577,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>341.7</v>
+        <v>327</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>342.5</v>
+        <v>325.7</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5607,13 +5607,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>347.5</v>
+        <v>327</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -5622,13 +5622,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>336.3</v>
+        <v>329.5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5637,13 +5637,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>338.2</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-07</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>336.5</v>
+        <v>329.8</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>339.8</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5682,13 +5682,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>332.2</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5697,13 +5697,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>335.2</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -5712,13 +5712,13 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>337.1</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -5727,13 +5727,13 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>337.2</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>339.2</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5757,13 +5757,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>338.5</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>337.3</v>
+        <v>338.2</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>335.4</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>333.1</v>
+        <v>339.8</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-20</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>337.3</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>336.2</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>338</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5862,13 +5862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>340.6</v>
+        <v>337.2</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -5877,13 +5877,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>333.3</v>
+        <v>339.2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>324.7</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5907,13 +5907,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>322.4</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5922,13 +5922,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>322.8</v>
+        <v>335.4</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>325.3</v>
+        <v>333.1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5952,13 +5952,13 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>324.1</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5967,13 +5967,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>322.9</v>
+        <v>336.2</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5982,13 +5982,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>323.9</v>
+        <v>338</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>327.7</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>327.4</v>
+        <v>333.3</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6027,13 +6027,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>328.8</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>323.2</v>
+        <v>322.4</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>326.6</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>324.7</v>
+        <v>325.3</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>320.9</v>
+        <v>324.1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>323</v>
+        <v>322.9</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6117,13 +6117,13 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>325</v>
+        <v>323.9</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>329.3</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>331.1</v>
+        <v>327.4</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>337.4</v>
+        <v>328.8</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>341</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6192,13 +6192,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>334.2</v>
+        <v>326.6</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>327.5</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>327.3</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>327.1</v>
+        <v>323</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6252,13 +6252,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>329.6</v>
+        <v>325</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>332.4</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>335.1</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>329.3</v>
+        <v>337.4</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>328.1</v>
+        <v>341</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6327,13 +6327,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>328.3</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>318.8</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>319.8</v>
+        <v>327.3</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>319.8</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>319.4</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-26</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>316.7</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>323.2</v>
+        <v>335.1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>321.1</v>
+        <v>329.3</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>322.7</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>322.8</v>
+        <v>328.3</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>322.7</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>327.2</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>325.9</v>
+        <v>319.8</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>325.9</v>
+        <v>319.4</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>332</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>334.5</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>334.7</v>
+        <v>321.1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>334.2</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>336.7</v>
+        <v>322.8</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>341.7</v>
+        <v>322.7</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>338</v>
+        <v>327.2</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>340.5</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>341.2</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>341.1</v>
+        <v>332</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>347.1</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>349.9</v>
+        <v>334.7</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6717,13 +6717,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>348.9</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>350.2</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6747,13 +6747,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>354</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6762,13 +6762,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>351.1</v>
+        <v>338</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>350.9</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>349.4</v>
+        <v>341.2</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>349.6</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6822,13 +6822,13 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>349.7</v>
+        <v>347.1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>352.2</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>354.4</v>
+        <v>348.9</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6867,13 +6867,13 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>354.5</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>358.6</v>
+        <v>354</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6897,13 +6897,13 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>362.6</v>
+        <v>351.1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>359.6</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6927,13 +6927,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>359.6</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>357.7</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6957,13 +6957,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>357.2</v>
+        <v>349.7</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>355.9</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>356.7</v>
+        <v>354.4</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>361.8</v>
+        <v>354.5</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>364.4</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>361.4</v>
+        <v>362.6</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>363</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7062,13 +7062,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>365.4</v>
+        <v>359.6</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>367.5</v>
+        <v>357.7</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7092,13 +7092,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>369.3</v>
+        <v>357.2</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>369.2</v>
+        <v>355.9</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>363.7</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7137,13 +7137,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>359.4</v>
+        <v>361.8</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>351.2</v>
+        <v>364.4</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7167,13 +7167,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>351.5</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7182,13 +7182,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>353.3</v>
+        <v>363</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>346.9</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7212,13 +7212,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>347.8</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>347.4</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>346.4</v>
+        <v>369.2</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>345.1</v>
+        <v>363.7</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>343.9</v>
+        <v>359.4</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7287,13 +7287,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>340.3</v>
+        <v>351.2</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7302,13 +7302,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>342.5</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7317,13 +7317,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>341.1</v>
+        <v>353.3</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>344</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7347,13 +7347,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>346.5</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>342.1</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>339.9</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7392,13 +7392,13 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>342.8</v>
+        <v>345.1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>343.5</v>
+        <v>343.9</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7422,13 +7422,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>341</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>346.7</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>343.6</v>
+        <v>341.1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>342.8</v>
+        <v>344</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>344.4</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>346.8</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>345</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7527,13 +7527,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>345.2</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>345.6</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>346.1</v>
+        <v>341</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7572,13 +7572,13 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>349.9</v>
+        <v>346.7</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>348.8</v>
+        <v>343.6</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -7602,13 +7602,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>346.1</v>
+        <v>342.8</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7617,13 +7617,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>344</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>344.1</v>
+        <v>346.8</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -7647,13 +7647,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>345.7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>344.8</v>
+        <v>345.2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7677,13 +7677,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>347.6</v>
+        <v>345.6</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>347.7</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7713,7 +7713,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7722,13 +7722,13 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>342</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7737,13 +7737,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>342.3</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>341.8</v>
+        <v>344</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>343.7</v>
+        <v>344.1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>343.1</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>340.6</v>
+        <v>344.8</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7812,13 +7812,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>340.9</v>
+        <v>347.6</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7827,13 +7827,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>340.2</v>
+        <v>347.7</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7842,13 +7842,13 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>339.3</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>339.4</v>
+        <v>342</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7872,13 +7872,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>339.1</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>340.3</v>
+        <v>341.8</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>342.4</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7917,13 +7917,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>339.9</v>
+        <v>343.1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7932,13 +7932,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>334.3</v>
+        <v>340.6</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7947,13 +7947,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>338</v>
+        <v>340.9</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7962,13 +7962,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>337.3</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>339.4</v>
+        <v>339.3</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>337.3</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>339.6</v>
+        <v>339.1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8022,13 +8022,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>340.4</v>
+        <v>340.3</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8037,13 +8037,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>344.4</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8052,13 +8052,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>346.3</v>
+        <v>339.9</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8067,13 +8067,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>346.3</v>
+        <v>334.3</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8082,13 +8082,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>349.2</v>
+        <v>338</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -8097,13 +8097,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>351.6</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>350.1</v>
+        <v>339.4</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8127,13 +8127,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>346.1</v>
+        <v>337.3</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>342.4</v>
+        <v>339.6</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8157,13 +8157,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>347.8</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8172,13 +8172,13 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>350.9</v>
+        <v>344.4</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8187,13 +8187,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>347.8</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8202,13 +8202,13 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>345</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>345.7</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>345</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>344</v>
+        <v>350.1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8262,13 +8262,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>350.6</v>
+        <v>346.1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>348</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8292,13 +8292,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>346.9</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8307,13 +8307,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>348.3</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>350.8</v>
+        <v>347.8</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -8337,13 +8337,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>351.6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8352,13 +8352,13 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>353.6</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8367,13 +8367,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>356.6</v>
+        <v>345</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8382,13 +8382,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>358.4</v>
+        <v>344</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -8397,13 +8397,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>360.3</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -8412,13 +8412,13 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>365.4</v>
+        <v>348</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -8427,13 +8427,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>369.1</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>371.1</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -8457,13 +8457,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>371.1</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -8472,13 +8472,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>367.4</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -8487,13 +8487,13 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>362.9</v>
+        <v>353.6</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -8502,13 +8502,13 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>363</v>
+        <v>356.6</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -8517,13 +8517,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>363.8</v>
+        <v>358.4</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -8532,13 +8532,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>367.8</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2023-12-29</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -8547,21 +8547,156 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>366.3</v>
+        <v>365.4</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
+          <t>2023-12-28</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>369.1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>371.1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>371.1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>367.4</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>362.9</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>363.8</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>367.8</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>SMK26</t>
-        </is>
-      </c>
-      <c r="C542" t="n">
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>SMK26</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
         <v>369.9</v>
       </c>
     </row>
